--- a/Pipeline_2-Vulnerability/Energy/Outputs/Data/Energy_FEC_Data.xlsx
+++ b/Pipeline_2-Vulnerability/Energy/Outputs/Data/Energy_FEC_Data.xlsx
@@ -39550,9 +39550,21 @@
           <t>Basic Metals</t>
         </is>
       </c>
+      <c r="E980">
+        <v>0.4165107822593831</v>
+      </c>
+      <c r="F980">
+        <v>0.0004620431433342159</v>
+      </c>
       <c r="G980">
         <v>0</v>
       </c>
+      <c r="H980">
+        <v>0.8265476798685338</v>
+      </c>
+      <c r="I980">
+        <v>0.01096759437091478</v>
+      </c>
       <c r="J980">
         <v>0.01</v>
       </c>
@@ -39618,9 +39630,21 @@
           <t>Electronics and Electrical Equipment</t>
         </is>
       </c>
+      <c r="E982">
+        <v>0.3452037370495306</v>
+      </c>
+      <c r="F982">
+        <v>0.03398766707614088</v>
+      </c>
       <c r="G982">
         <v>0</v>
       </c>
+      <c r="H982">
+        <v>0.6788770493166885</v>
+      </c>
+      <c r="I982">
+        <v>0.08117576749669767</v>
+      </c>
       <c r="J982">
         <v>0.01</v>
       </c>
@@ -39806,9 +39830,21 @@
           <t>Chemical, Petrolchemical, Pharmaceutical and Plastic</t>
         </is>
       </c>
+      <c r="E987">
+        <v>0.419928352542083</v>
+      </c>
+      <c r="F987">
+        <v>0.01008886823547337</v>
+      </c>
       <c r="G987">
         <v>0</v>
       </c>
+      <c r="H987">
+        <v>0.8336251678939641</v>
+      </c>
+      <c r="I987">
+        <v>0.03112775019904089</v>
+      </c>
       <c r="J987">
         <v>0.01</v>
       </c>
@@ -39874,9 +39910,21 @@
           <t>Basic Metals</t>
         </is>
       </c>
+      <c r="E989">
+        <v>0.4165107822593831</v>
+      </c>
+      <c r="F989">
+        <v>0.0004620431433342159</v>
+      </c>
       <c r="G989">
         <v>0</v>
       </c>
+      <c r="H989">
+        <v>0.8265476798685338</v>
+      </c>
+      <c r="I989">
+        <v>0.01096759437091478</v>
+      </c>
       <c r="J989">
         <v>0.01</v>
       </c>
@@ -39942,9 +39990,21 @@
           <t>Electronics and Electrical Equipment</t>
         </is>
       </c>
+      <c r="E991">
+        <v>0.3452037370495306</v>
+      </c>
+      <c r="F991">
+        <v>0.03398766707614088</v>
+      </c>
       <c r="G991">
         <v>0</v>
       </c>
+      <c r="H991">
+        <v>0.6788770493166885</v>
+      </c>
+      <c r="I991">
+        <v>0.08117576749669767</v>
+      </c>
       <c r="J991">
         <v>0.01</v>
       </c>
@@ -77290,8 +77350,20 @@
           <t>Basic Metals</t>
         </is>
       </c>
+      <c r="E1925">
+        <v>0.4165107822593831</v>
+      </c>
+      <c r="F1925">
+        <v>0.0004620431433342159</v>
+      </c>
       <c r="G1925">
         <v>0</v>
+      </c>
+      <c r="H1925">
+        <v>0.8265476798685338</v>
+      </c>
+      <c r="I1925">
+        <v>0.01096759437091478</v>
       </c>
       <c r="J1925">
         <v>0.01</v>
